--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7914.071283196984</v>
+        <v>1574900.1853562</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7914.071283196984</v>
+        <v>1574900.1853562</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7024.174304525148</v>
+        <v>430804.59785911</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7024.174304525148</v>
+        <v>430804.59785911</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959131064.3516495</v>
+        <v>39304376.10633685</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8967.041586399619</v>
+        <v>914010.2870743989</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17193.98060961603</v>
+        <v>1701120.93728227</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25420.91963283243</v>
+        <v>2488231.587490142</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34071.32599873509</v>
+        <v>3248441.808848848</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42392.65695287421</v>
+        <v>4035311.740179532</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50713.98790701292</v>
+        <v>4822181.671510273</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59221.92676963184</v>
+        <v>5618054.020728917</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67684.62735140706</v>
+        <v>6404923.952059675</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76227.01989984626</v>
+        <v>7159341.715613119</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84546.39170535599</v>
+        <v>7946452.365820988</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>92865.76351086571</v>
+        <v>8733563.016028861</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101185.1353163754</v>
+        <v>9520673.666236738</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>109504.5071218852</v>
+        <v>10307784.31644461</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>117825.8380760239</v>
+        <v>11094654.24777538</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>126860.0574454041</v>
+        <v>11816897.65823394</v>
       </c>
     </row>
   </sheetData>
